--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H2">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N2">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O2">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P2">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q2">
-        <v>19.16168113194991</v>
+        <v>54.926419745186</v>
       </c>
       <c r="R2">
-        <v>19.16168113194991</v>
+        <v>494.337777706674</v>
       </c>
       <c r="S2">
-        <v>0.04103214681454046</v>
+        <v>0.08792325205076708</v>
       </c>
       <c r="T2">
-        <v>0.04103214681454046</v>
+        <v>0.08792325205076709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H3">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P3">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q3">
-        <v>223.2920758587727</v>
+        <v>311.9198791093596</v>
       </c>
       <c r="R3">
-        <v>223.2920758587727</v>
+        <v>2807.278911984237</v>
       </c>
       <c r="S3">
-        <v>0.4781497602464445</v>
+        <v>0.4993045291829835</v>
       </c>
       <c r="T3">
-        <v>0.4781497602464445</v>
+        <v>0.4993045291829836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H4">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N4">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O4">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P4">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q4">
-        <v>17.62151740715711</v>
+        <v>28.118067740365</v>
       </c>
       <c r="R4">
-        <v>17.62151740715711</v>
+        <v>253.062609663285</v>
       </c>
       <c r="S4">
-        <v>0.037734094642659</v>
+        <v>0.04500988720156537</v>
       </c>
       <c r="T4">
-        <v>0.037734094642659</v>
+        <v>0.04500988720156537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N5">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O5">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P5">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q5">
-        <v>13.07404029260366</v>
+        <v>27.043965339622</v>
       </c>
       <c r="R5">
-        <v>13.07404029260366</v>
+        <v>243.395688056598</v>
       </c>
       <c r="S5">
-        <v>0.02799628785445407</v>
+        <v>0.0432905219753777</v>
       </c>
       <c r="T5">
-        <v>0.02799628785445407</v>
+        <v>0.0432905219753777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P6">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q6">
-        <v>152.3524776711298</v>
+        <v>153.5791052558443</v>
       </c>
       <c r="R6">
-        <v>152.3524776711298</v>
+        <v>1382.211947302599</v>
       </c>
       <c r="S6">
-        <v>0.3262422116469408</v>
+        <v>0.2458411533790962</v>
       </c>
       <c r="T6">
-        <v>0.3262422116469408</v>
+        <v>0.2458411533790962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N7">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O7">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P7">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q7">
-        <v>12.02318455314702</v>
+        <v>13.844413178855</v>
       </c>
       <c r="R7">
-        <v>12.02318455314702</v>
+        <v>124.599718609695</v>
       </c>
       <c r="S7">
-        <v>0.02574602251054374</v>
+        <v>0.02216139036672083</v>
       </c>
       <c r="T7">
-        <v>0.02574602251054374</v>
+        <v>0.02216139036672083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H8">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N8">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O8">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P8">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q8">
-        <v>2.171049207522046</v>
+        <v>4.905836449286666</v>
       </c>
       <c r="R8">
-        <v>2.171049207522046</v>
+        <v>44.15252804358001</v>
       </c>
       <c r="S8">
-        <v>0.00464900804951299</v>
+        <v>0.007852998550634208</v>
       </c>
       <c r="T8">
-        <v>0.00464900804951299</v>
+        <v>0.00785299855063421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H9">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P9">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q9">
-        <v>25.299350354538</v>
+        <v>27.85959688053222</v>
       </c>
       <c r="R9">
-        <v>25.299350354538</v>
+        <v>250.73637192479</v>
       </c>
       <c r="S9">
-        <v>0.05417513478653024</v>
+        <v>0.04459614098139875</v>
       </c>
       <c r="T9">
-        <v>0.05417513478653024</v>
+        <v>0.04459614098139875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H10">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N10">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O10">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P10">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q10">
-        <v>1.996546187085585</v>
+        <v>2.511407847883333</v>
       </c>
       <c r="R10">
-        <v>1.996546187085585</v>
+        <v>22.60267063095</v>
       </c>
       <c r="S10">
-        <v>0.004275333448374223</v>
+        <v>0.004020126311456405</v>
       </c>
       <c r="T10">
-        <v>0.004275333448374223</v>
+        <v>0.004020126311456405</v>
       </c>
     </row>
   </sheetData>
